--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB096.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB096.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA0C53-D34E-41F8-8D98-09AAC84738EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF7FA9-101D-431F-8EEA-71893661F2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -424,10 +424,6 @@
     <t>面積</t>
   </si>
   <si>
-    <t>右靠左補0，單位:平方公尺，填至小數點2位;面積小於0.01者，本欄於出檔時填"X"，右靠左補空白</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>LandZoningCode</t>
   </si>
   <si>
@@ -446,10 +442,6 @@
   </si>
   <si>
     <t>公告土地現值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>右靠左補0，單位:新台幣千元，不足1千者填1，超過1千者四捨五入；空白填9999999999</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -797,6 +789,14 @@
   </si>
   <si>
     <t xml:space="preserve">                      LEFT JOIN "CustMain" C  ON  C."CustUKey"  = O."OwnerCustUKey"</t>
+  </si>
+  <si>
+    <t>右靠左補0，單位：平方公尺，填至小數點2位;面積小於0.01者，本欄於出檔時填"X"，右靠左補空白</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>右靠左補0，單位：新台幣千元，不足1千者填1，超過1千者四捨五入；空白填9999999999</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1679,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1861,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>25</v>
@@ -1875,13 +1875,13 @@
       <c r="F15" s="9"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>183</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1969,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="138" x14ac:dyDescent="0.3">
@@ -2082,7 +2082,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>66</v>
@@ -2114,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2122,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -2140,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -2174,10 +2174,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>25</v>
@@ -2186,16 +2186,16 @@
         <v>10</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I26" s="29">
         <v>16</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
@@ -2203,10 +2203,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>25</v>
@@ -2221,7 +2221,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>40</v>
@@ -2244,13 +2244,13 @@
         <v>40</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I28" s="29">
         <v>18</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2518,242 +2518,242 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7844570A-5892-4AFD-8A24-7F44D7A3CB17}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2779,102 +2779,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
